--- a/WIP/Users/LucPT/FAP_TestViewpoint_Like_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Like_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1001,10 +1001,6 @@
     <t>FAP_Software requirement specification_v1.0</t>
   </si>
   <si>
-    <t>Check display:
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>- Web title: 
 - Display normally, there is not push, breaking font
 - Display text, textbox, button, color, background and arrangement</t>
@@ -1056,6 +1052,10 @@
   </si>
   <si>
     <t>Update dislike number of disliked post. Displays post or comment as normal</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
   </si>
 </sst>
 </file>
@@ -3055,6 +3055,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3075,24 +3093,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6193,14 +6193,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6215,12 +6215,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6232,27 +6232,27 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6261,11 +6261,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6288,10 +6288,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6309,10 +6309,10 @@
       <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6326,8 +6326,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6335,8 +6335,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6344,8 +6344,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6353,8 +6353,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6362,8 +6362,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6371,8 +6371,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6380,6 +6380,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6387,12 +6393,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6409,7 +6409,7 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6599,10 +6599,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="59" t="s">
         <v>137</v>
-      </c>
-      <c r="L9" s="59" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6660,7 +6660,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6679,7 +6679,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6691,10 +6691,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1">
@@ -6706,7 +6706,7 @@
       <c r="D14" s="60"/>
       <c r="E14" s="61"/>
       <c r="F14" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -6725,7 +6725,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6737,22 +6737,22 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -6765,13 +6765,13 @@
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="64"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6783,22 +6783,22 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="60"/>
       <c r="E18" s="61"/>
       <c r="F18" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
@@ -6811,13 +6811,13 @@
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="63"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -6829,10 +6829,10 @@
         <v>37</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L19" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1">
